--- a/training/output/CNN/W/W2_W1.xlsx
+++ b/training/output/CNN/W/W2_W1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4641666666666666</v>
+        <v>0.056875</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12426383972168</v>
+        <v>3.259662985801697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7091666666666667</v>
+        <v>0.2727083333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2.514477157592773</v>
+        <v>2.90724390745163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8275</v>
+        <v>0.3125</v>
       </c>
       <c r="B4" t="n">
-        <v>2.26807731628418</v>
+        <v>2.815014958381653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8283333333333333</v>
+        <v>0.3254166666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>2.079463500976563</v>
+        <v>2.725052058696747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8975</v>
+        <v>0.3404166666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>1.950266432762146</v>
+        <v>2.692132413387299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.315625</v>
       </c>
       <c r="B7" t="n">
-        <v>1.79622567653656</v>
+        <v>2.663650393486023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9025</v>
+        <v>0.3933333333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>1.7404669713974</v>
+        <v>2.639840602874756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.91</v>
+        <v>0.3885416666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.72456817150116</v>
+        <v>2.612586498260498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>1.695424933433533</v>
+        <v>2.579221367835999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.925</v>
+        <v>0.3408333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>1.708246750831604</v>
+        <v>2.56340616941452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.93</v>
+        <v>0.4158333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>1.647670230865478</v>
+        <v>2.56702983379364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9325</v>
+        <v>0.4575</v>
       </c>
       <c r="B13" t="n">
-        <v>1.550832738876343</v>
+        <v>2.547890067100525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.4254166666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.564984607696533</v>
+        <v>2.553482592105865</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.4033333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>1.549042420387268</v>
+        <v>2.508851647377014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.4085416666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.513917145729065</v>
+        <v>2.473770141601562</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.95</v>
+        <v>0.3983333333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>1.5452618932724</v>
+        <v>2.429001033306122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>1.514591093063355</v>
+        <v>2.409794688224792</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.551344447135925</v>
+        <v>2.432343780994415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.4308333333333333</v>
       </c>
       <c r="B20" t="n">
-        <v>1.507957854270935</v>
+        <v>2.394226491451263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.3733333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.479215245246887</v>
+        <v>2.378821671009064</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>1.492908263206482</v>
+        <v>2.352523326873779</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.460659527778625</v>
+        <v>2.410333871841431</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.455976667404175</v>
+        <v>2.315589606761932</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.390625</v>
       </c>
       <c r="B25" t="n">
-        <v>1.458845229148865</v>
+        <v>2.317634999752045</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.4420833333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>1.46586573600769</v>
+        <v>2.285892307758331</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.95</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>1.475914430618286</v>
+        <v>2.28902405500412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.4489583333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>1.477407712936401</v>
+        <v>2.261991500854492</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.4514583333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>1.443274617195129</v>
+        <v>2.2255859375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.4239583333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.444000706672669</v>
+        <v>2.220537543296814</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.4189583333333333</v>
       </c>
       <c r="B31" t="n">
-        <v>1.454645414352417</v>
+        <v>2.282871723175049</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.4389583333333333</v>
       </c>
       <c r="B32" t="n">
-        <v>1.444198431968689</v>
+        <v>2.250621378421783</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.4164583333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>1.432977933883667</v>
+        <v>2.209923207759857</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.449375</v>
       </c>
       <c r="B34" t="n">
-        <v>1.426310539245605</v>
+        <v>2.208780527114868</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.4489583333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>1.43991039276123</v>
+        <v>2.142328262329102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.4516666666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>1.423489570617676</v>
+        <v>2.124031245708466</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.4541666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>1.422934880256653</v>
+        <v>2.113662362098694</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.4566666666666667</v>
       </c>
       <c r="B38" t="n">
-        <v>1.426042890548706</v>
+        <v>2.123413264751434</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.5366666666666666</v>
       </c>
       <c r="B39" t="n">
-        <v>1.455785632133484</v>
+        <v>2.149125277996063</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.533125</v>
       </c>
       <c r="B40" t="n">
-        <v>1.444414882659912</v>
+        <v>2.179975688457489</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.5770833333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>1.437600450515747</v>
+        <v>2.175037682056427</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.5610416666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>1.426083416938782</v>
+        <v>2.08821314573288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.494375</v>
       </c>
       <c r="B43" t="n">
-        <v>1.419745955467224</v>
+        <v>2.067724317312241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.5287500000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1.443113331794739</v>
+        <v>2.033797979354858</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.535625</v>
       </c>
       <c r="B45" t="n">
-        <v>1.430099158287048</v>
+        <v>2.036316603422165</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.5870833333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>1.422925992012024</v>
+        <v>2.110686540603638</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.56625</v>
       </c>
       <c r="B47" t="n">
-        <v>1.412602682113647</v>
+        <v>2.041672587394714</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.5670833333333334</v>
       </c>
       <c r="B48" t="n">
-        <v>1.44086492061615</v>
+        <v>2.012173593044281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.5770833333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>1.507169470787048</v>
+        <v>2.020139068365097</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.5789583333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>1.464959907531738</v>
+        <v>1.993059366941452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.5991666666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>1.425294599533081</v>
+        <v>1.980051815509796</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.60375</v>
       </c>
       <c r="B52" t="n">
-        <v>1.434299545288086</v>
+        <v>2.007355928421021</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.559375</v>
       </c>
       <c r="B53" t="n">
-        <v>1.447940311431885</v>
+        <v>2.025024682283401</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.5889583333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>1.435626678466797</v>
+        <v>1.975509971380234</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.55375</v>
       </c>
       <c r="B55" t="n">
-        <v>1.429794487953186</v>
+        <v>1.98602169752121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.6020833333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.432197523117065</v>
+        <v>1.9716537296772</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.5945833333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.426517682075501</v>
+        <v>1.906645536422729</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.6070833333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>1.43310631275177</v>
+        <v>1.911485850811005</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.5995833333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.421370944976807</v>
+        <v>1.897792160511017</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.6045833333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.406335134506226</v>
+        <v>1.883143067359924</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.5997916666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>1.414468321800232</v>
+        <v>1.881638705730438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.6245833333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>1.455747261047363</v>
+        <v>1.874864906072617</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.619375</v>
       </c>
       <c r="B63" t="n">
-        <v>1.447387733459473</v>
+        <v>1.892992407083511</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.6247916666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>1.478951735496521</v>
+        <v>1.865205347537994</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.6222916666666667</v>
       </c>
       <c r="B65" t="n">
-        <v>1.423690447807312</v>
+        <v>1.870090156793594</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.6295833333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>1.437610592842102</v>
+        <v>1.797162681818008</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.615</v>
       </c>
       <c r="B67" t="n">
-        <v>1.446572556495666</v>
+        <v>1.875179797410965</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.6325</v>
       </c>
       <c r="B68" t="n">
-        <v>1.424833416938782</v>
+        <v>1.760443985462189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.6572916666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>1.407502198219299</v>
+        <v>1.767566710710526</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.6477083333333333</v>
       </c>
       <c r="B70" t="n">
-        <v>1.41420024394989</v>
+        <v>1.719261348247528</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="B71" t="n">
-        <v>1.415484685897827</v>
+        <v>1.759199261665344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.6475</v>
       </c>
       <c r="B72" t="n">
-        <v>1.415701432228088</v>
+        <v>1.727910250425339</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>1.442713532447815</v>
+        <v>1.69493567943573</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.6270833333333334</v>
       </c>
       <c r="B74" t="n">
-        <v>1.410767903327942</v>
+        <v>1.648571133613586</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.6343749999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>1.411225552558899</v>
+        <v>1.75497367978096</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.6472916666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.409112749099731</v>
+        <v>1.716050565242767</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.6597916666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>1.413819823265076</v>
+        <v>1.636988818645477</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.6743750000000001</v>
       </c>
       <c r="B78" t="n">
-        <v>1.406075921058655</v>
+        <v>1.625152111053467</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.7075</v>
       </c>
       <c r="B79" t="n">
-        <v>1.402005701065064</v>
+        <v>1.62227401137352</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.6745833333333333</v>
       </c>
       <c r="B80" t="n">
-        <v>1.402420191764832</v>
+        <v>1.580755472183228</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.6693750000000001</v>
       </c>
       <c r="B81" t="n">
-        <v>1.403949460983276</v>
+        <v>1.655500441789627</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.6827083333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>1.409670977592468</v>
+        <v>1.602814465761185</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.7104166666666666</v>
       </c>
       <c r="B83" t="n">
-        <v>1.422688703536987</v>
+        <v>1.553220897912979</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.7281249999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>1.452227354049683</v>
+        <v>1.562757879495621</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.6822916666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>1.412080116271973</v>
+        <v>1.593157261610031</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.6722916666666666</v>
       </c>
       <c r="B86" t="n">
-        <v>1.428627195358276</v>
+        <v>1.520684063434601</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.7329166666666665</v>
       </c>
       <c r="B87" t="n">
-        <v>1.420502324104309</v>
+        <v>1.556451350450516</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.7022916666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.403914980888367</v>
+        <v>1.542143642902374</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.7177083333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>1.409296956062317</v>
+        <v>1.511839419603348</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.7177083333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.400994253158569</v>
+        <v>1.558603435754776</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.7102083333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>1.402430429458618</v>
+        <v>1.52148774266243</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.7025</v>
       </c>
       <c r="B92" t="n">
-        <v>1.40112636089325</v>
+        <v>1.486306816339493</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.7295833333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.408721671104431</v>
+        <v>1.467042058706284</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.7427083333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.407468070983887</v>
+        <v>1.483266144990921</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.7277083333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.402316360473633</v>
+        <v>1.453059494495392</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.7635416666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>1.401372909545898</v>
+        <v>1.429004579782486</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.7477083333333333</v>
       </c>
       <c r="B97" t="n">
-        <v>1.39622124671936</v>
+        <v>1.425725430250168</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="B98" t="n">
-        <v>1.397061686515808</v>
+        <v>1.422471702098846</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.755</v>
       </c>
       <c r="B99" t="n">
-        <v>1.397327380180359</v>
+        <v>1.480348527431488</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.7402083333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>1.394896764755249</v>
+        <v>1.480055600404739</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.7577083333333333</v>
       </c>
       <c r="B101" t="n">
-        <v>1.413633036613464</v>
+        <v>1.383454829454422</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.7852083333333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.359086245298386</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.7702083333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.369214773178101</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.7827083333333333</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.366973549127579</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.7902083333333333</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.369789451360703</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.7775</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.40484219789505</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.7952083333333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.330601871013641</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.7760416666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.332800447940826</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.7602083333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.310056507587433</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.8054166666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.278021454811096</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.7849999999999999</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.291632086038589</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.82875</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.27657687664032</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.326632440090179</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.8289583333333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.254067242145538</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.839375</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.332628220319748</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.8029166666666666</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.511853605508804</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.81125</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.296555608510971</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.7904166666666667</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.286810517311096</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.26780954003334</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.83375</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.246997237205505</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.860625</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.198483198881149</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.860625</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.20305922627449</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.8641666666666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.239289671182632</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.8514583333333333</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.20662522315979</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.8404166666666667</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.242328643798828</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.8466666666666667</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.207045793533325</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.228073090314865</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.8966666666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.192232489585876</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.8889583333333334</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.183096706867218</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.8889583333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.188194394111633</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.8733333333333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.137057811021805</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.166038453578949</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.8933333333333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.113856822252274</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.8916666666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.149683088064194</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9091666666666667</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.105941563844681</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.886875</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.113091886043549</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.109832882881165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.8485416666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.20156592130661</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.891875</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.176731526851654</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.116867065429688</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.911875</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.100456207990646</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.8941666666666667</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.096699923276901</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9045833333333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.055575340986252</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.065657064318657</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.889375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.136026263237</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9120833333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.111269682645798</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.911875</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.050739020109177</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.891875</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.051579058170319</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9139583333333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.075172960758209</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.906875</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.090785682201385</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.008452594280243</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.00720676779747</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9195833333333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.024775668978691</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9070833333333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9831040352582932</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9347916666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9706634730100632</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9193750000000001</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9674803167581558</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.929375</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9701061695814133</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9143749999999999</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9717040807008743</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9147916666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9721985459327698</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9397916666666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9478554129600525</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9472916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9392416775226593</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9194366782903671</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9143749999999999</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9978778511285782</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9245833333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9485075622797012</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9222916666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9238870739936829</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9382746666669846</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9397916666666666</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.883635476231575</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9282683283090591</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9298293590545654</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9397916666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9392545372247696</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.8972916666666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.036170497536659</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.102386265993118</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9543558955192566</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9070833333333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.193649590015411</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9170833333333334</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9613007307052612</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.87883460521698</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8914550840854645</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9110395163297653</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9397916666666667</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8892563581466675</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9547916666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.853510320186615</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.8820379823446274</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.8519030809402466</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.8524658232927322</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9422916666666666</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9136486351490021</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.8539249300956726</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.8301513344049454</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8298400342464447</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8366468399763107</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8263370245695114</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8587402701377869</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.8022761344909668</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.8068960905075073</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.8107835799455643</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8183468580245972</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.8001488596200943</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.8165004998445511</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.804234653711319</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.8136316686868668</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.790820449590683</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7975823581218719</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7954626083374023</v>
       </c>
     </row>
   </sheetData>
